--- a/biology/Zoologie/Feylinia_boulengeri/Feylinia_boulengeri.xlsx
+++ b/biology/Zoologie/Feylinia_boulengeri/Feylinia_boulengeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Feylinia boulengeri est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Feylinia boulengeri est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Gabon[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Gabon.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est apode[1].
-L'holotype mesure 82,0 mm de longueur totale dont 21,0 mm pour la queue[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est apode.
+L'holotype mesure 82,0 mm de longueur totale dont 21,0 mm pour la queue.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De 1943 à 1983, cette espèce a été placée dans le genre monotypique Chabanaudia[3], qui était nommé en l'honneur de Paul Chabanaud[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 1943 à 1983, cette espèce a été placée dans le genre monotypique Chabanaudia, qui était nommé en l'honneur de Paul Chabanaud.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de George Albert Boulenger[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de George Albert Boulenger.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Chabanaud, 1917 : Descriptions de trois espèces nouvelles de Reptiles de l'Afrique. Bulletin du Muséum national d'histoire naturelle, vol. 23, p. 219-225 (texte intégral).</t>
         </is>
